--- a/data/long_bre/P18_3-Estudios-long_bre.xlsx
+++ b/data/long_bre/P18_3-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>101,97%</t>
+          <t>11,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>134,65%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,84%</t>
+          <t>105,39%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>99,68%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-7,83%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>163,01%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 15,01</t>
+          <t>-0,63; 15,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 12,6</t>
+          <t>-1,65; 12,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 6,76</t>
+          <t>-17,55; 6,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 316,22</t>
+          <t>3,57; 22,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 467,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-55,82; 54,15</t>
+          <t>-19,97; 471,32</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-24,23; 492,82</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-56,08; 49,88</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19,91; 563,77</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,39</t>
+          <t>-13,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,91%</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,23%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,31%</t>
+          <t>-15,13%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-7,85%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 8,09</t>
+          <t>-23,83; -2,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 9,04</t>
+          <t>-10,46; 24,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 10,34</t>
+          <t>-15,08; 8,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 12,14</t>
+          <t>-14,24; 26,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 13,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 16,49</t>
+          <t>-26,58; -3,05</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-13,51; 46,51</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-19,75; 12,77</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-19,75; 59,14</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-7,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>-12,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>56,06%</t>
+          <t>82,68%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-33,16%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>71,02%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-39,25%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 11,76</t>
+          <t>-2,98; 14,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 10,03</t>
+          <t>-33,17; 3,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 11,79</t>
+          <t>-0,34; 13,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-59,47; 176,43</t>
+          <t>-38,57; 2,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,56; 96,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 171,58</t>
+          <t>-29,99; 452,69</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-73,61; 24,87</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,29; 198,23</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-74,77; 12,92</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,22%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 8,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 4,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 6,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 99,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,55; 55,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 56,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,04%</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,88%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,89%</t>
+          <t>15,23%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,79%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>70,26%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 0,59</t>
+          <t>-6,53; 8,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 1,62</t>
+          <t>-3,59; 5,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 0,2</t>
+          <t>-5,39; 5,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 0,74</t>
+          <t>2,08; 13,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 2,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 0,24</t>
+          <t>-33,45; 79,05</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-28,8; 73,56</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-26,62; 46,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13,14; 159,3</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>-7,56</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>-0,14%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-6,89%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-7,78%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-11,17%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 6,26</t>
+          <t>-8,66; 8,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 9,96</t>
+          <t>-13,28; 4,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 9,45</t>
+          <t>-11,85; 0,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,78; 79,26</t>
+          <t>-16,42; 1,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 78,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 94,83</t>
+          <t>-11,02; 12,33</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-17,3; 6,17</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-15,85; 1,37</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-22,49; 1,97</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>73,41%</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,09%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>-17,55%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22,61%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>37,82%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-1,14%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 11,65</t>
+          <t>-7,83; 3,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 6,62</t>
+          <t>-4,75; 11,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 7,73</t>
+          <t>-0,19; 9,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,95; 169,69</t>
+          <t>-9,06; 7,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-50,4; 85,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 91,16</t>
+          <t>-50,42; 42,19</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-22,27; 86,64</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 100,98</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-34,23; 42,61</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-9,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,82%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,34%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-12,27%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 0,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 6,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,53; -3,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 1,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 9,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,06; -5,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,51%</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>53,75%</t>
+          <t>69,2%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>31,54%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>33,18%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 4,32</t>
+          <t>0,21; 13,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 9,03</t>
+          <t>-5,41; 8,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,16; 10,76</t>
+          <t>-1,02; 7,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-45,67; 53,55</t>
+          <t>-1,65; 9,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 81,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,67; 118,9</t>
+          <t>2,83; 221,89</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-39,45; 145,01</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-7,7; 95,97</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-12,14; 112,79</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>-11,1</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-9,59</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>56,31%</t>
+          <t>-8,37</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>-13,07%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-8,32%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-12,32%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-11,05%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2,07; 8,5</t>
+          <t>-18,87; -3,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 4,91</t>
+          <t>-14,74; 3,03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 4,91</t>
+          <t>-15,76; -3,93</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,3; 108,99</t>
+          <t>-15,51; -0,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 61,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 40,81</t>
+          <t>-21,5; -4,46</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-18,32; 4,2</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-19,34; -5,25</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-19,54; -0,62</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-6,68</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,84</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-8,39%</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-6,47%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-9,25%</t>
+          <t>81,82%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>25,78%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>54,22%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>35,7%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,87; -1,54</t>
+          <t>-1,03; 9,07</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 0,18</t>
+          <t>-4,06; 10,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,94; -2,18</t>
+          <t>1,26; 11,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-13,2; -1,97</t>
+          <t>-1,38; 9,91</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 0,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,28; -3,04</t>
+          <t>-15,96; 289,97</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-21,97; 102,23</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>8,4; 124,2</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-10,08; 99,41</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>46,67%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,1008 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 4,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 7,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2,49; 8,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 53,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 55,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>18,63; 89,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>6,17</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>79,53%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-8,74%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 10,51</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-10,59; 6,39</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>19,17; 187,45</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-57,66; 72,89</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-9,17</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-4,12</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-11,4%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-5,44%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-15,57; -2,79</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-14,02; 6,99</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-18,59; -3,43</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-17,35; 9,96</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>5,28</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>25,56%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>47,91%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 8,01</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 13,3</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-17,98; 82,74</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-17,99; 193,18</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>5,24</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>7,06</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>53,14%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>15,75%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>68,2%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 8,31</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; 4,46</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 4,9</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 11,31</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>13,4; 97,41</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-17,7; 54,44</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-17,63; 39,91</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>24,82; 132,83</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-7,23</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>-4,21</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-6,86</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>-5,99</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-9,03%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-5,72%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-9,32%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-8,65%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-11,06; -2,54</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-9,08; 0,93</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-10,98; -2,14</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-11,92; 1,49</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-13,44; -3,15</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-11,74; 1,33</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-14,45; -3,09</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-16,33; 1,87</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>5,64</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>19,86%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>16,0%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>48,91%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>-5,25%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 4,77</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 6,78</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 8,35</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>-8,25; 3,74</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-10,0; 56,83</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-12,74; 47,59</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>16,03; 81,03</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>-32,17; 22,2</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P18_3-Estudios-long_bre.xlsx
+++ b/data/long_bre/P18_3-Estudios-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -742,7 +742,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -844,7 +844,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -950,7 +950,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1052,7 +1052,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1154,7 +1154,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1362,7 +1362,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1464,7 +1464,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1672,7 +1672,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1774,7 +1774,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
